--- a/extras/Hangman/lead_board.xlsx
+++ b/extras/Hangman/lead_board.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>14.96270084381104</v>
+        <v>15.92770862579346</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>14.80747294425964</v>
+        <v>14.1684513092041</v>
       </c>
     </row>
     <row r="5">
@@ -514,6 +514,32 @@
       </c>
       <c r="C7" t="n">
         <v>23.62345433235168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.978395462036133</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.544487237930298</v>
       </c>
     </row>
   </sheetData>
